--- a/biology/Zoologie/Conus_aequiquadratus/Conus_aequiquadratus.xlsx
+++ b/biology/Zoologie/Conus_aequiquadratus/Conus_aequiquadratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus aequiquadratus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de la coquille atteint 44,2 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine d'escargot conique est présente au large de Madagascar.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus aequiquadratus a été décrite pour la première fois en 2018 par les malacologistes Éric Monnier (d), Manuel Jimenez Tenorio (d), Philippe Bouchet et Nicolas Puillandre (d) dans « Xenophora Taxonomy »[1],[2].
-Synonymes
-Conus (Turriconus) aequiquadratus Monnier, Tenorio, Bouchet &amp; Puillandre, 2018 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus aequiquadratus a été décrite pour la première fois en 2018 par les malacologistes Éric Monnier (d), Manuel Jimenez Tenorio (d), Philippe Bouchet et Nicolas Puillandre (d) dans « Xenophora Taxonomy »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_aequiquadratus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_aequiquadratus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Turriconus) aequiquadratus Monnier, Tenorio, Bouchet &amp; Puillandre, 2018 · appellation alternative
 Turriconus (Turriconus) aequiquadratus (Monnier, Tenorio, Bouchet &amp; Puillandre, 2018) · non accepté
 Turriconus aequiquadratus (Monnier, Tenorio, Bouchet &amp; Puillandre, 2018) · non accepté</t>
         </is>
